--- a/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,253 +46,292 @@
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>poorly</t>
+    <t>cheap</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>however</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>piece</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>disappointing</t>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>received</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>doll</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>way</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>son</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>one</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>elf</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>favorite</t>
+    <t>wait</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>helicopter</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>wait</t>
+    <t>great</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>ages</t>
   </si>
   <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>lego</t>
+    <t>game</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>lots</t>
   </si>
   <si>
     <t>book</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>lots</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>learn</t>
   </si>
   <si>
     <t>recommend</t>
@@ -301,10 +340,16 @@
     <t>easy</t>
   </si>
   <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>well</t>
-  </si>
-  <si>
-    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -665,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,10 +718,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,13 +779,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9864864864864865</v>
+        <v>0.9932432432432432</v>
       </c>
       <c r="C3">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D3">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -752,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K3">
-        <v>0.8615384615384616</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -776,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -784,13 +829,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9859154929577465</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -802,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K4">
-        <v>0.84375</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -826,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -834,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9789473684210527</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K5">
-        <v>0.8301886792452831</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -876,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -884,13 +929,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9611650485436893</v>
+        <v>0.9516129032258065</v>
       </c>
       <c r="C6">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -902,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K6">
-        <v>0.8297872340425532</v>
+        <v>0.84375</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -926,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -934,13 +979,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9444444444444444</v>
+        <v>0.9514563106796117</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -952,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K7">
-        <v>0.8125</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="L7">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -976,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -984,13 +1029,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9354838709677419</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C8">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1002,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K8">
-        <v>0.8049792531120332</v>
+        <v>0.7987551867219918</v>
       </c>
       <c r="L8">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M8">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1026,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1034,13 +1079,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9354838709677419</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C9">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1052,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K9">
-        <v>0.7792207792207793</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L9">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1076,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1084,13 +1129,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.90625</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C10">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1102,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K10">
-        <v>0.7733142037302726</v>
+        <v>0.7503586800573888</v>
       </c>
       <c r="L10">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="M10">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1126,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1134,13 +1179,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8913043478260869</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1152,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K11">
-        <v>0.7311827956989247</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1176,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1184,13 +1229,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8524590163934426</v>
+        <v>0.875</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D12">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1202,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K12">
-        <v>0.7155963302752294</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L12">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1226,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1234,13 +1279,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8412698412698413</v>
+        <v>0.859375</v>
       </c>
       <c r="C13">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="D13">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1252,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K13">
-        <v>0.6964285714285714</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1276,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1284,13 +1329,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8341232227488151</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="C14">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1302,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K14">
-        <v>0.6964285714285714</v>
+        <v>0.709480122324159</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1326,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1334,13 +1379,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1352,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K15">
-        <v>0.6909090909090909</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1376,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1384,13 +1429,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.796875</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C16">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1402,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K16">
-        <v>0.6818181818181818</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1426,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1434,13 +1479,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7681159420289855</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C17">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1452,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K17">
-        <v>0.6620111731843575</v>
+        <v>0.64</v>
       </c>
       <c r="L17">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1473,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>121</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1484,13 +1529,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7592592592592593</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1502,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K18">
-        <v>0.6445783132530121</v>
+        <v>0.6385542168674698</v>
       </c>
       <c r="L18">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M18">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1526,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1534,13 +1579,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.8104265402843602</v>
       </c>
       <c r="C19">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="D19">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1552,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K19">
-        <v>0.6231884057971014</v>
+        <v>0.625</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1576,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1584,13 +1629,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7432432432432432</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D20">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1602,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K20">
-        <v>0.610655737704918</v>
+        <v>0.5812807881773399</v>
       </c>
       <c r="L20">
-        <v>745</v>
+        <v>708</v>
       </c>
       <c r="M20">
-        <v>745</v>
+        <v>710</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1623,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>475</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1634,13 +1679,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7319587628865979</v>
+        <v>0.8</v>
       </c>
       <c r="C21">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D21">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1652,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K21">
-        <v>0.5811965811965812</v>
+        <v>0.5682451253481894</v>
       </c>
       <c r="L21">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="M21">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1676,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>49</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1684,13 +1729,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7228915662650602</v>
+        <v>0.7831325301204819</v>
       </c>
       <c r="C22">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D22">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1702,19 +1747,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K22">
-        <v>0.5079365079365079</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L22">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="M22">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1726,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>93</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1734,13 +1779,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7045454545454546</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1755,16 +1800,16 @@
         <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K23">
-        <v>0.4666666666666667</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L23">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1776,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1784,13 +1829,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.703125</v>
+        <v>0.7628865979381443</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1802,19 +1847,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K24">
-        <v>0.4428571428571428</v>
+        <v>0.475</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1826,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1834,13 +1879,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6585365853658537</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="C25">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1852,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="K25">
-        <v>0.3961038961038961</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L25">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="M25">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1876,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1884,13 +1929,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6481481481481481</v>
+        <v>0.7432432432432432</v>
       </c>
       <c r="C26">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D26">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1902,19 +1947,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K26">
-        <v>0.3939000648929267</v>
+        <v>0.3972691807542263</v>
       </c>
       <c r="L26">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="M26">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1923,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>934</v>
+        <v>927</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1934,13 +1979,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6347826086956522</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="C27">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="D27">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1952,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="K27">
-        <v>0.3695652173913043</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1976,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1984,13 +2029,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6237623762376238</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C28">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="D28">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2002,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K28">
-        <v>0.360655737704918</v>
+        <v>0.368</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M28">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2026,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2034,13 +2079,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5882352941176471</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="C29">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2052,19 +2097,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="K29">
-        <v>0.3146362839614373</v>
+        <v>0.3298245614035088</v>
       </c>
       <c r="L29">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="M29">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2073,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>782</v>
+        <v>764</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2084,37 +2129,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5746031746031746</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="C30">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="D30">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="E30">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="K30">
-        <v>0.2027972027972028</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2126,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2134,13 +2179,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5517241379310345</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2152,31 +2197,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="K31">
-        <v>0.1428571428571428</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N31">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>246</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2184,13 +2229,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5357142857142857</v>
+        <v>0.6683168316831684</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2202,31 +2247,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K32">
+        <v>0.253968253968254</v>
+      </c>
+      <c r="L32">
+        <v>32</v>
+      </c>
+      <c r="M32">
+        <v>32</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>94</v>
-      </c>
-      <c r="K32">
-        <v>0.1203208556149733</v>
-      </c>
-      <c r="L32">
-        <v>45</v>
-      </c>
-      <c r="M32">
-        <v>45</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2234,13 +2279,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5238095238095238</v>
+        <v>0.6579710144927536</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="D33">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2252,31 +2297,31 @@
         <v>0</v>
       </c>
       <c r="H33">
+        <v>118</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33">
+        <v>0.234375</v>
+      </c>
+      <c r="L33">
         <v>30</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K33">
-        <v>0.08354430379746836</v>
-      </c>
-      <c r="L33">
-        <v>33</v>
-      </c>
       <c r="M33">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>362</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2284,13 +2329,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4420289855072464</v>
+        <v>0.609375</v>
       </c>
       <c r="C34">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="D34">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2302,31 +2347,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="K34">
-        <v>0.08122503328894808</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L34">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="M34">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="N34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>690</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2334,13 +2379,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4395604395604396</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="C35">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D35">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2352,7 +2397,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K35">
+        <v>0.1310160427807487</v>
+      </c>
+      <c r="L35">
+        <v>49</v>
+      </c>
+      <c r="M35">
+        <v>49</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2360,13 +2429,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4186046511627907</v>
+        <v>0.5630252100840336</v>
       </c>
       <c r="C36">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D36">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2378,7 +2447,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K36">
+        <v>0.1225033288948069</v>
+      </c>
+      <c r="L36">
+        <v>92</v>
+      </c>
+      <c r="M36">
+        <v>93</v>
+      </c>
+      <c r="N36">
+        <v>0.99</v>
+      </c>
+      <c r="O36">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>659</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2386,13 +2479,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4157303370786517</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="C37">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D37">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2404,7 +2497,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K37">
+        <v>0.121875</v>
+      </c>
+      <c r="L37">
+        <v>39</v>
+      </c>
+      <c r="M37">
+        <v>43</v>
+      </c>
+      <c r="N37">
+        <v>0.91</v>
+      </c>
+      <c r="O37">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2412,13 +2529,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3955696202531646</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="C38">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="D38">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2430,7 +2547,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>191</v>
+        <v>41</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K38">
+        <v>0.1169354838709677</v>
+      </c>
+      <c r="L38">
+        <v>29</v>
+      </c>
+      <c r="M38">
+        <v>30</v>
+      </c>
+      <c r="N38">
+        <v>0.97</v>
+      </c>
+      <c r="O38">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2438,25 +2579,49 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3918918918918919</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C39">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D39">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>45</v>
+        <v>147</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K39">
+        <v>0.09414758269720101</v>
+      </c>
+      <c r="L39">
+        <v>37</v>
+      </c>
+      <c r="M39">
+        <v>40</v>
+      </c>
+      <c r="N39">
+        <v>0.93</v>
+      </c>
+      <c r="O39">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2464,13 +2629,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3715846994535519</v>
+        <v>0.4968354430379747</v>
       </c>
       <c r="C40">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="D40">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2482,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>115</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2490,13 +2655,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3504273504273504</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2508,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2516,7 +2681,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2905982905982906</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C42">
         <v>34</v>
@@ -2534,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2542,25 +2707,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2823529411764706</v>
+        <v>0.3931623931623932</v>
       </c>
       <c r="C43">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D43">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E43">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>122</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2568,25 +2733,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.273015873015873</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="C44">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D44">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E44">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>229</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2594,13 +2759,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.26</v>
+        <v>0.3825136612021858</v>
       </c>
       <c r="C45">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D45">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2612,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2620,13 +2785,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2596439169139466</v>
+        <v>0.355</v>
       </c>
       <c r="C46">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="D46">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2638,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>499</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2646,13 +2811,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2342857142857143</v>
+        <v>0.3359375</v>
       </c>
       <c r="C47">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D47">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2664,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>134</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2672,25 +2837,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2164948453608248</v>
+        <v>0.3149606299212598</v>
       </c>
       <c r="C48">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D48">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E48">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>152</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2698,13 +2863,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2026431718061674</v>
+        <v>0.304093567251462</v>
       </c>
       <c r="C49">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="D49">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2716,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>362</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2724,25 +2889,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1852986217457887</v>
+        <v>0.2942050520059435</v>
       </c>
       <c r="C50">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="D50">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="E50">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F50">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>532</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2750,25 +2915,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1560693641618497</v>
+        <v>0.2928571428571429</v>
       </c>
       <c r="C51">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D51">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E51">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>292</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2776,13 +2941,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1559139784946237</v>
+        <v>0.2466960352422908</v>
       </c>
       <c r="C52">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="D52">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2794,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>157</v>
+        <v>342</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2802,25 +2967,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1495327102803738</v>
+        <v>0.2305475504322766</v>
       </c>
       <c r="C53">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D53">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>182</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2828,25 +2993,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1258992805755396</v>
+        <v>0.2256410256410256</v>
       </c>
       <c r="C54">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D54">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E54">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F54">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>243</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2854,25 +3019,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1238317757009346</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C55">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D55">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E55">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="F55">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>375</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2880,25 +3045,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.09557109557109557</v>
+        <v>0.2158730158730159</v>
       </c>
       <c r="C56">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D56">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E56">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="F56">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>388</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2906,25 +3071,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.08781869688385269</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="C57">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D57">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E57">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F57">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>322</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2932,25 +3097,285 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.07967032967032966</v>
+        <v>0.2009345794392523</v>
       </c>
       <c r="C58">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D58">
+        <v>43</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.1770833333333333</v>
+      </c>
+      <c r="C59">
+        <v>34</v>
+      </c>
+      <c r="D59">
+        <v>34</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.1725190839694656</v>
+      </c>
+      <c r="C60">
+        <v>113</v>
+      </c>
+      <c r="D60">
+        <v>113</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="C61">
         <v>30</v>
       </c>
-      <c r="E58">
+      <c r="D61">
+        <v>30</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.1267217630853995</v>
+      </c>
+      <c r="C62">
+        <v>46</v>
+      </c>
+      <c r="D62">
+        <v>48</v>
+      </c>
+      <c r="E62">
+        <v>0.04</v>
+      </c>
+      <c r="F62">
+        <v>0.96</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.1258741258741259</v>
+      </c>
+      <c r="C63">
+        <v>54</v>
+      </c>
+      <c r="D63">
+        <v>59</v>
+      </c>
+      <c r="E63">
+        <v>0.08</v>
+      </c>
+      <c r="F63">
+        <v>0.92</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C64">
+        <v>31</v>
+      </c>
+      <c r="D64">
+        <v>32</v>
+      </c>
+      <c r="E64">
         <v>0.03</v>
       </c>
-      <c r="F58">
+      <c r="F64">
         <v>0.97</v>
       </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>335</v>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.1029900332225914</v>
+      </c>
+      <c r="C65">
+        <v>31</v>
+      </c>
+      <c r="D65">
+        <v>31</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.09375</v>
+      </c>
+      <c r="C66">
+        <v>33</v>
+      </c>
+      <c r="D66">
+        <v>36</v>
+      </c>
+      <c r="E66">
+        <v>0.08</v>
+      </c>
+      <c r="F66">
+        <v>0.92</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.09345794392523364</v>
+      </c>
+      <c r="C67">
+        <v>40</v>
+      </c>
+      <c r="D67">
+        <v>45</v>
+      </c>
+      <c r="E67">
+        <v>0.11</v>
+      </c>
+      <c r="F67">
+        <v>0.89</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.06923076923076923</v>
+      </c>
+      <c r="C68">
+        <v>54</v>
+      </c>
+      <c r="D68">
+        <v>68</v>
+      </c>
+      <c r="E68">
+        <v>0.21</v>
+      </c>
+      <c r="F68">
+        <v>0.79</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>726</v>
       </c>
     </row>
   </sheetData>
